--- a/Website/src/main/java/com/extramarks/website/testdata/credentials.xlsx
+++ b/Website/src/main/java/com/extramarks/website/testdata/credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12060" windowHeight="3975"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="4365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P13"/>
 </workbook>
 </file>
 
